--- a/larson(rmetaanalysis).xlsx
+++ b/larson(rmetaanalysis).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\Thesis\githubthesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D93789A-999F-433A-A46F-394B94A9F573}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1D87BA-0A6D-420D-8EB0-1D926BA0BB23}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11480" xr2:uid="{82994317-DEF0-47CC-A78E-074601CFA1DC}"/>
   </bookViews>
@@ -25,131 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="46">
   <si>
     <t>anxiety</t>
   </si>
   <si>
-    <t>bpd</t>
-  </si>
-  <si>
-    <t>cgi-bpd-affectinstability</t>
-  </si>
-  <si>
-    <t>cgi-bpd-anger</t>
-  </si>
-  <si>
-    <t>cgi-bpd-emptiness</t>
-  </si>
-  <si>
-    <t>cgi-bpd-global</t>
-  </si>
-  <si>
-    <t>cgi-bpd-impulsivity</t>
-  </si>
-  <si>
-    <t>cgi-bpd-suicide</t>
-  </si>
-  <si>
-    <t>cgi-bpd-unstablerelations</t>
-  </si>
-  <si>
     <t>depression</t>
   </si>
   <si>
-    <t>hrsd-17</t>
-  </si>
-  <si>
-    <t>hostilityirritability</t>
-  </si>
-  <si>
-    <t>bdi-indirecthostility</t>
-  </si>
-  <si>
-    <t>bdi-irritability</t>
-  </si>
-  <si>
-    <t>psychiatric</t>
-  </si>
-  <si>
-    <t>cgi-globalimprov-patient</t>
-  </si>
-  <si>
-    <t>scl90-r-gsi</t>
-  </si>
-  <si>
-    <t>scl90-r-hostility</t>
-  </si>
-  <si>
-    <t>scl90-r-interpersonalsensitivty</t>
-  </si>
-  <si>
-    <t>scl90-r-psychoticism</t>
-  </si>
-  <si>
-    <t>psychotic</t>
-  </si>
-  <si>
-    <t>bprs</t>
-  </si>
-  <si>
-    <t>anger</t>
-  </si>
-  <si>
-    <t>ees-anger</t>
-  </si>
-  <si>
-    <t>beckdepressioninventory</t>
-  </si>
-  <si>
-    <t>ees-depression</t>
-  </si>
-  <si>
     <t>eating</t>
   </si>
   <si>
-    <t>ede-restraint</t>
-  </si>
-  <si>
-    <t>mood</t>
-  </si>
-  <si>
-    <t>ders</t>
-  </si>
-  <si>
-    <t>nmr</t>
-  </si>
-  <si>
-    <t>selfesteem</t>
-  </si>
-  <si>
-    <t>rosenbergself-esteemscale</t>
-  </si>
-  <si>
-    <t>bdi</t>
-  </si>
-  <si>
-    <t>cognitiverestraint(tfeq-cr)</t>
-  </si>
-  <si>
-    <t>dietaryrestraint(ede-r)</t>
-  </si>
-  <si>
-    <t>disinhibition(tfeq-dis)</t>
-  </si>
-  <si>
-    <t>eatingconcern(ede-ec)</t>
-  </si>
-  <si>
-    <t>hunger(tfeq-h)</t>
-  </si>
-  <si>
-    <t>shapeconcern(ede-sc)</t>
-  </si>
-  <si>
-    <t>weightconcerns(ede-wc)</t>
-  </si>
-  <si>
     <t>study</t>
   </si>
   <si>
@@ -189,21 +75,6 @@
     <t>sd_control</t>
   </si>
   <si>
-    <t>ede-shape concern</t>
-  </si>
-  <si>
-    <t>ede-eating concern</t>
-  </si>
-  <si>
-    <t>ede-weight concern</t>
-  </si>
-  <si>
-    <t>panas-negative</t>
-  </si>
-  <si>
-    <t>panas-positive</t>
-  </si>
-  <si>
     <t>Hamilton Rating Scale for Anxiety</t>
   </si>
   <si>
@@ -214,6 +85,84 @@
   </si>
   <si>
     <t>Beck Anxiety Inventory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamilton Rating Scale for Depression </t>
+  </si>
+  <si>
+    <t>Beck Depression Inventory</t>
+  </si>
+  <si>
+    <t>Emotional Eating Scale-Depression</t>
+  </si>
+  <si>
+    <t>Telch et al.</t>
+  </si>
+  <si>
+    <t>Harley et al.</t>
+  </si>
+  <si>
+    <t>Feldman et al.</t>
+  </si>
+  <si>
+    <t>Eating Disorder Examination-Restraint</t>
+  </si>
+  <si>
+    <t>Eating Disorder Examination-Weight Concerns</t>
+  </si>
+  <si>
+    <t>Eating Disorder Examination-Shape Concerns</t>
+  </si>
+  <si>
+    <t>Eating Disorder Examination-Eating Concerns</t>
+  </si>
+  <si>
+    <t>weight-pounds</t>
+  </si>
+  <si>
+    <t>Body Mass Index</t>
+  </si>
+  <si>
+    <t>Emotional Eating Scale subscore scores - Anger</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Emotional Eating Scale subscore scores - Anxiety</t>
+  </si>
+  <si>
+    <t>Emotional Eating Scale subscore scores - Depression</t>
+  </si>
+  <si>
+    <t>Binge Days</t>
+  </si>
+  <si>
+    <t>Purge Days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eating Disorder Examination-Weight Concerns </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eating Disorder Examination-Eating Concerns </t>
+  </si>
+  <si>
+    <t>Binge Eating Scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective binge days </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eating Disorder Examination-Shape Concerns </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Three Factor Eating Questionnaire-Cognitive Restraint </t>
+  </si>
+  <si>
+    <t>Three Factor Eating Questionnaire-Disinhibition</t>
+  </si>
+  <si>
+    <t>Three Factor Eating Questionnaire-Hunger</t>
   </si>
 </sst>
 </file>
@@ -567,59 +516,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C3EF8B-CDE0-4990-9AD7-9A3620019349}">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.17578125" customWidth="1"/>
     <col min="3" max="3" width="20.87890625" customWidth="1"/>
-    <col min="4" max="4" width="36.87890625" customWidth="1"/>
-    <col min="5" max="5" width="11.234375" customWidth="1"/>
-    <col min="6" max="6" width="16.64453125" customWidth="1"/>
-    <col min="7" max="7" width="11.234375" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="15.29296875" customWidth="1"/>
+    <col min="4" max="4" width="47.1171875" customWidth="1"/>
+    <col min="5" max="5" width="16.64453125" customWidth="1"/>
+    <col min="6" max="7" width="11.234375" customWidth="1"/>
+    <col min="8" max="8" width="15.29296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>2009</v>
@@ -628,30 +575,30 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="E2">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>5.46</v>
+      </c>
+      <c r="G2">
         <v>42</v>
       </c>
-      <c r="F2">
-        <v>13</v>
-      </c>
-      <c r="G2">
-        <v>5.46</v>
-      </c>
       <c r="H2">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
         <v>37</v>
-      </c>
-      <c r="I2">
-        <v>16.559999999999999</v>
-      </c>
-      <c r="J2">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>2010</v>
@@ -660,30 +607,30 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="E3">
+        <v>1.51</v>
+      </c>
+      <c r="F3">
+        <v>0.87</v>
+      </c>
+      <c r="G3">
         <v>43</v>
       </c>
-      <c r="F3">
-        <v>1.51</v>
-      </c>
-      <c r="G3">
-        <v>0.87</v>
-      </c>
       <c r="H3">
+        <v>1.81</v>
+      </c>
+      <c r="I3">
+        <v>0.89</v>
+      </c>
+      <c r="J3">
         <v>43</v>
-      </c>
-      <c r="I3">
-        <v>1.81</v>
-      </c>
-      <c r="J3">
-        <v>0.89</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1">
         <v>2011</v>
@@ -692,30 +639,30 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="E4">
+        <v>15.08</v>
+      </c>
+      <c r="F4">
+        <v>11.06</v>
+      </c>
+      <c r="G4">
         <v>26</v>
       </c>
-      <c r="F4">
-        <v>15.08</v>
-      </c>
-      <c r="G4">
-        <v>11.06</v>
-      </c>
       <c r="H4">
+        <v>10.14</v>
+      </c>
+      <c r="I4">
+        <v>25</v>
+      </c>
+      <c r="J4">
         <v>13.83</v>
-      </c>
-      <c r="I4">
-        <v>10.14</v>
-      </c>
-      <c r="J4">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>2009</v>
@@ -724,1174 +671,1282 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E5">
+        <v>11.11</v>
+      </c>
+      <c r="F5">
+        <v>3.99</v>
+      </c>
+      <c r="G5">
         <v>42</v>
       </c>
-      <c r="F5">
-        <v>3.61</v>
-      </c>
-      <c r="G5">
-        <v>1.19</v>
-      </c>
       <c r="H5">
+        <v>16</v>
+      </c>
+      <c r="I5">
+        <v>5.78</v>
+      </c>
+      <c r="J5">
         <v>37</v>
-      </c>
-      <c r="I5">
-        <v>4.66</v>
-      </c>
-      <c r="J5">
-        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>42</v>
-      </c>
-      <c r="F6">
-        <v>3.11</v>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="F6" s="1">
+        <v>10.19</v>
       </c>
       <c r="G6">
-        <v>1.02</v>
+        <v>26</v>
       </c>
       <c r="H6">
-        <v>37</v>
+        <v>14.36</v>
       </c>
       <c r="I6">
-        <v>3.88</v>
-      </c>
-      <c r="J6">
-        <v>0.78</v>
+        <v>11.41</v>
+      </c>
+      <c r="J6" s="1">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>42</v>
-      </c>
-      <c r="F7">
-        <v>4.33</v>
+        <v>2.06</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.99</v>
       </c>
       <c r="G7">
-        <v>1.57</v>
-      </c>
-      <c r="H7">
-        <v>37</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
-      <c r="J7">
-        <v>1.5</v>
+        <v>43</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1.81</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="J7" s="1">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>42</v>
-      </c>
-      <c r="F8">
-        <v>3.5</v>
+        <v>9.1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>9.2100000000000009</v>
       </c>
       <c r="G8">
-        <v>1.2</v>
-      </c>
-      <c r="H8">
-        <v>37</v>
-      </c>
-      <c r="I8">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="J8">
-        <v>0.52</v>
+        <v>43</v>
+      </c>
+      <c r="H8" s="1">
+        <v>10.84</v>
+      </c>
+      <c r="I8" s="1">
+        <v>6.86</v>
+      </c>
+      <c r="J8" s="1">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>42</v>
-      </c>
-      <c r="F9">
-        <v>3.61</v>
-      </c>
-      <c r="G9">
-        <v>0.97</v>
-      </c>
-      <c r="H9">
-        <v>37</v>
-      </c>
-      <c r="I9">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="J9">
-        <v>0.6</v>
+        <v>13.4</v>
+      </c>
+      <c r="F9" s="1">
+        <v>11.6</v>
+      </c>
+      <c r="G9" s="1">
+        <v>14</v>
+      </c>
+      <c r="H9" s="1">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="I9" s="1">
+        <v>11.8</v>
+      </c>
+      <c r="J9" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>42</v>
-      </c>
-      <c r="F10">
-        <v>2.44</v>
-      </c>
-      <c r="G10">
-        <v>1.24</v>
-      </c>
-      <c r="H10">
-        <v>37</v>
-      </c>
-      <c r="I10">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="J10">
-        <v>0.88</v>
+        <v>9.9</v>
+      </c>
+      <c r="F10" s="1">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1">
+        <v>18</v>
+      </c>
+      <c r="H10" s="1">
+        <v>12.8</v>
+      </c>
+      <c r="I10" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J10" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>42</v>
-      </c>
-      <c r="F11">
-        <v>4.22</v>
-      </c>
-      <c r="G11">
-        <v>0.8</v>
-      </c>
-      <c r="H11">
-        <v>37</v>
-      </c>
-      <c r="I11">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="J11">
-        <v>0.72</v>
+        <v>11.3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5.31</v>
+      </c>
+      <c r="G11" s="1">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1">
+        <v>17.11</v>
+      </c>
+      <c r="I11" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="J11" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>15.1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>12.13</v>
+      </c>
+      <c r="G12" s="1">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1">
+        <v>25.89</v>
+      </c>
+      <c r="I12" s="1">
+        <v>16.3</v>
+      </c>
+      <c r="J12" s="1">
         <v>9</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>42</v>
-      </c>
-      <c r="F12">
-        <v>11.11</v>
-      </c>
-      <c r="G12">
-        <v>3.99</v>
-      </c>
-      <c r="H12">
-        <v>37</v>
-      </c>
-      <c r="I12">
-        <v>16</v>
-      </c>
-      <c r="J12">
-        <v>5.78</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1">
         <v>2009</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>42</v>
-      </c>
-      <c r="F13">
-        <v>6.75</v>
-      </c>
-      <c r="G13">
-        <v>1.88</v>
-      </c>
-      <c r="H13">
-        <v>37</v>
-      </c>
-      <c r="I13">
-        <v>7.57</v>
-      </c>
-      <c r="J13">
-        <v>1.27</v>
+        <v>11.3</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5.31</v>
+      </c>
+      <c r="G13" s="1">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1">
+        <v>17.11</v>
+      </c>
+      <c r="I13" s="1">
+        <v>6.23</v>
+      </c>
+      <c r="J13" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>42</v>
-      </c>
-      <c r="F14">
-        <v>8.3800000000000008</v>
-      </c>
-      <c r="G14">
-        <v>3.34</v>
-      </c>
-      <c r="H14">
-        <v>37</v>
-      </c>
-      <c r="I14">
-        <v>9.86</v>
-      </c>
-      <c r="J14">
-        <v>0.9</v>
+        <v>7</v>
+      </c>
+      <c r="F14" s="1">
+        <v>6</v>
+      </c>
+      <c r="G14" s="1">
+        <v>41</v>
+      </c>
+      <c r="H14" s="1">
+        <v>12</v>
+      </c>
+      <c r="I14" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J14" s="1">
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2010</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1.29</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="G15" s="1">
         <v>43</v>
       </c>
-      <c r="B15" s="1">
-        <v>2009</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15">
-        <v>42</v>
-      </c>
-      <c r="F15">
-        <v>3.27</v>
-      </c>
-      <c r="G15">
-        <v>0.9</v>
-      </c>
-      <c r="H15">
-        <v>37</v>
-      </c>
-      <c r="I15">
-        <v>3.57</v>
-      </c>
-      <c r="J15">
-        <v>1.1299999999999999</v>
+      <c r="H15" s="1">
+        <v>1.91</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1.23</v>
+      </c>
+      <c r="J15" s="1">
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2010</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>2.54</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1.18</v>
+      </c>
+      <c r="G16" s="1">
         <v>43</v>
       </c>
-      <c r="B16" s="1">
-        <v>2009</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16">
-        <v>42</v>
-      </c>
-      <c r="F16">
-        <v>2.09</v>
-      </c>
-      <c r="G16">
-        <v>1.07</v>
-      </c>
-      <c r="H16">
-        <v>37</v>
-      </c>
-      <c r="I16">
-        <v>2.5</v>
-      </c>
-      <c r="J16">
-        <v>0.86</v>
+      <c r="H16" s="1">
+        <v>3</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="J16" s="1">
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2010</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17">
+        <v>2.62</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G17" s="1">
         <v>43</v>
       </c>
-      <c r="B17" s="1">
-        <v>2009</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17">
-        <v>42</v>
-      </c>
-      <c r="F17">
-        <v>13</v>
-      </c>
-      <c r="G17">
-        <v>8.59</v>
-      </c>
-      <c r="H17">
-        <v>37</v>
-      </c>
-      <c r="I17">
-        <v>15.85</v>
-      </c>
-      <c r="J17">
-        <v>8.17</v>
+      <c r="H17" s="1">
+        <v>3.03</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1.35</v>
+      </c>
+      <c r="J17" s="1">
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2010</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18">
+        <v>0.54</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="G18" s="1">
         <v>43</v>
       </c>
-      <c r="B18" s="1">
-        <v>2009</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18">
-        <v>42</v>
-      </c>
-      <c r="F18">
-        <v>18.5</v>
-      </c>
-      <c r="G18">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="H18">
-        <v>37</v>
-      </c>
-      <c r="I18">
-        <v>26</v>
-      </c>
-      <c r="J18">
-        <v>8.34</v>
+      <c r="H18" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1.39</v>
+      </c>
+      <c r="J18" s="1">
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2010</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19">
+        <v>212.61</v>
+      </c>
+      <c r="F19" s="1">
+        <v>52.6</v>
+      </c>
+      <c r="G19" s="1">
         <v>43</v>
       </c>
-      <c r="B19" s="1">
-        <v>2009</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19">
-        <v>42</v>
-      </c>
-      <c r="F19">
-        <v>16.37</v>
-      </c>
-      <c r="G19">
-        <v>11.09</v>
-      </c>
-      <c r="H19">
-        <v>37</v>
-      </c>
-      <c r="I19">
-        <v>22.28</v>
-      </c>
-      <c r="J19">
-        <v>9.19</v>
+      <c r="H19" s="1">
+        <v>221.87</v>
+      </c>
+      <c r="I19" s="1">
+        <v>53.19</v>
+      </c>
+      <c r="J19" s="1">
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2010</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20">
+        <v>35.130000000000003</v>
+      </c>
+      <c r="F20" s="1">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="G20" s="1">
         <v>43</v>
       </c>
-      <c r="B20" s="1">
-        <v>2009</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20">
-        <v>42</v>
-      </c>
-      <c r="F20">
-        <v>8.74</v>
-      </c>
-      <c r="G20">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="H20">
-        <v>37</v>
-      </c>
-      <c r="I20">
-        <v>11.89</v>
-      </c>
-      <c r="J20">
-        <v>4.4000000000000004</v>
+      <c r="H20" s="1">
+        <v>36.65</v>
+      </c>
+      <c r="I20" s="1">
+        <v>7.64</v>
+      </c>
+      <c r="J20" s="1">
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="B21" s="1">
         <v>2010</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E21">
-        <v>50</v>
-      </c>
-      <c r="F21">
-        <v>1.83</v>
-      </c>
-      <c r="G21">
-        <v>0.98</v>
-      </c>
-      <c r="H21">
-        <v>51</v>
-      </c>
-      <c r="I21">
-        <v>2.06</v>
-      </c>
-      <c r="J21">
-        <v>1.05</v>
+        <v>1.8</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G21" s="1">
+        <v>14</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="J21" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="B22" s="1">
-        <v>2010</v>
+        <v>2001</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E22">
-        <v>50</v>
-      </c>
-      <c r="F22">
-        <v>9.1</v>
-      </c>
-      <c r="G22">
-        <v>9.2100000000000009</v>
-      </c>
-      <c r="H22">
-        <v>51</v>
-      </c>
-      <c r="I22">
-        <v>10.84</v>
-      </c>
-      <c r="J22">
-        <v>6.86</v>
+        <v>1.3</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="G22" s="1">
+        <v>14</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="J22" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="B23" s="1">
-        <v>2010</v>
+        <v>2001</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E23">
-        <v>50</v>
-      </c>
-      <c r="F23">
-        <v>2.06</v>
-      </c>
-      <c r="G23">
-        <v>0.99</v>
-      </c>
-      <c r="H23">
-        <v>51</v>
-      </c>
-      <c r="I23">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="J23">
-        <v>0.8</v>
+        <v>2.1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>14</v>
+      </c>
+      <c r="H23" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J23" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>2010</v>
+        <v>2001</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E24">
-        <v>50</v>
-      </c>
-      <c r="F24">
-        <v>0.54</v>
-      </c>
-      <c r="G24">
-        <v>0.71</v>
-      </c>
-      <c r="H24">
-        <v>51</v>
-      </c>
-      <c r="I24">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="J24">
-        <v>1.39</v>
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>18</v>
+      </c>
+      <c r="H24" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="I24" s="1">
+        <v>10</v>
+      </c>
+      <c r="J24" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>2010</v>
+        <v>2001</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E25">
-        <v>50</v>
-      </c>
-      <c r="F25">
-        <v>1.29</v>
-      </c>
-      <c r="G25">
-        <v>1.04</v>
-      </c>
-      <c r="H25">
-        <v>51</v>
-      </c>
-      <c r="I25">
-        <v>1.91</v>
-      </c>
-      <c r="J25">
-        <v>1.23</v>
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>18</v>
+      </c>
+      <c r="H25" s="1">
+        <v>10</v>
+      </c>
+      <c r="I25" s="1">
+        <v>14</v>
+      </c>
+      <c r="J25" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1">
-        <v>2010</v>
+        <v>2001</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E26">
-        <v>50</v>
-      </c>
-      <c r="F26">
-        <v>2.62</v>
-      </c>
-      <c r="G26">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="H26">
-        <v>51</v>
-      </c>
-      <c r="I26">
-        <v>3</v>
-      </c>
-      <c r="J26">
-        <v>1.35</v>
+        <v>209.2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>49</v>
+      </c>
+      <c r="G26" s="1">
+        <v>18</v>
+      </c>
+      <c r="H26" s="1">
+        <v>223.8</v>
+      </c>
+      <c r="I26" s="1">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="J26" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B27" s="1">
-        <v>2010</v>
+        <v>2001</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="E27">
-        <v>50</v>
-      </c>
-      <c r="F27">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="G27">
-        <v>1.18</v>
-      </c>
-      <c r="H27">
-        <v>51</v>
-      </c>
-      <c r="I27">
-        <v>3</v>
-      </c>
-      <c r="J27">
-        <v>1.25</v>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="G27" s="1">
+        <v>18</v>
+      </c>
+      <c r="H27" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B28" s="1">
-        <v>2010</v>
+        <v>2001</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E28">
-        <v>50</v>
-      </c>
-      <c r="F28">
-        <v>75.58</v>
-      </c>
-      <c r="G28">
-        <v>23.91</v>
-      </c>
-      <c r="H28">
-        <v>51</v>
-      </c>
-      <c r="I28">
-        <v>75.94</v>
-      </c>
-      <c r="J28">
-        <v>21.04</v>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="G28" s="1">
+        <v>18</v>
+      </c>
+      <c r="H28" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B29" s="1">
-        <v>2010</v>
+        <v>2001</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E29">
-        <v>50</v>
-      </c>
-      <c r="F29">
-        <v>99.54</v>
-      </c>
-      <c r="G29">
-        <v>16.670000000000002</v>
-      </c>
-      <c r="H29">
-        <v>51</v>
-      </c>
-      <c r="I29">
-        <v>99.71</v>
-      </c>
-      <c r="J29">
-        <v>13.35</v>
+        <v>0.4</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G29" s="1">
+        <v>18</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="J29" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B30" s="1">
-        <v>2010</v>
+        <v>2001</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="E30">
-        <v>50</v>
-      </c>
-      <c r="F30">
-        <v>21.26</v>
-      </c>
-      <c r="G30">
-        <v>8.01</v>
-      </c>
-      <c r="H30">
-        <v>51</v>
-      </c>
-      <c r="I30">
-        <v>20.45</v>
-      </c>
-      <c r="J30">
-        <v>6.58</v>
+        <v>1.4</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>18</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="J30" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B31" s="1">
-        <v>2010</v>
+        <v>2001</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E31">
-        <v>50</v>
-      </c>
-      <c r="F31">
-        <v>30.24</v>
-      </c>
-      <c r="G31">
-        <v>10.34</v>
-      </c>
-      <c r="H31">
-        <v>51</v>
-      </c>
-      <c r="I31">
-        <v>30.41</v>
-      </c>
-      <c r="J31">
-        <v>6.97</v>
+        <v>15.7</v>
+      </c>
+      <c r="F31" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="G31" s="1">
+        <v>18</v>
+      </c>
+      <c r="H31" s="1">
+        <v>28.2</v>
+      </c>
+      <c r="I31" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J31" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B32" s="1">
-        <v>2010</v>
+        <v>2001</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E32">
-        <v>50</v>
-      </c>
-      <c r="F32">
-        <v>30.28</v>
-      </c>
-      <c r="G32">
-        <v>6.78</v>
-      </c>
-      <c r="H32">
-        <v>51</v>
-      </c>
-      <c r="I32">
-        <v>29.82</v>
-      </c>
-      <c r="J32">
-        <v>5.8</v>
+        <v>1.8</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>18</v>
+      </c>
+      <c r="H32" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="J32" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B33" s="1">
-        <v>2011</v>
+        <v>2001</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E33">
-        <v>41</v>
-      </c>
-      <c r="F33">
-        <v>7</v>
-      </c>
-      <c r="G33">
-        <v>6</v>
-      </c>
-      <c r="H33">
-        <v>60</v>
-      </c>
-      <c r="I33">
-        <v>12</v>
-      </c>
-      <c r="J33">
-        <v>8.8000000000000007</v>
+        <v>1.5</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="G33" s="1">
+        <v>18</v>
+      </c>
+      <c r="H33" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B34" s="1">
-        <v>2011</v>
+        <v>2001</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E34">
-        <v>41</v>
-      </c>
-      <c r="F34">
-        <v>10.9</v>
-      </c>
-      <c r="G34">
-        <v>4</v>
-      </c>
-      <c r="H34">
-        <v>60</v>
-      </c>
-      <c r="I34">
-        <v>9.9</v>
-      </c>
-      <c r="J34">
-        <v>3.8</v>
+        <v>2.4</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>18</v>
+      </c>
+      <c r="H34" s="1">
+        <v>3</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="J34" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B35" s="1">
         <v>2011</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E35">
+        <v>1.7</v>
+      </c>
+      <c r="F35" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="G35" s="1">
         <v>41</v>
       </c>
-      <c r="F35">
-        <v>1.4</v>
-      </c>
-      <c r="G35">
-        <v>0.94</v>
-      </c>
-      <c r="H35">
+      <c r="H35" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I35" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="J35" s="1">
         <v>60</v>
-      </c>
-      <c r="I35">
-        <v>1.8</v>
-      </c>
-      <c r="J35">
-        <v>1.3</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B36" s="1">
         <v>2011</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="E36">
+        <v>1.4</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="G36" s="1">
         <v>41</v>
       </c>
-      <c r="F36">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="G36">
-        <v>3.8</v>
-      </c>
-      <c r="H36">
+      <c r="H36" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="J36" s="1">
         <v>60</v>
-      </c>
-      <c r="I36">
-        <v>12.2</v>
-      </c>
-      <c r="J36">
-        <v>3.1</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B37" s="1">
         <v>2011</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E37">
+        <v>2.5</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
         <v>41</v>
       </c>
-      <c r="F37">
-        <v>0.4</v>
-      </c>
-      <c r="G37">
-        <v>0.6</v>
-      </c>
-      <c r="H37">
+      <c r="H37" s="1">
+        <v>3</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="J37" s="1">
         <v>60</v>
-      </c>
-      <c r="I37">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J37">
-        <v>1.3</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B38" s="1">
         <v>2011</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E38">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G38" s="1">
         <v>41</v>
       </c>
-      <c r="F38">
-        <v>6</v>
-      </c>
-      <c r="G38">
-        <v>3.9</v>
-      </c>
-      <c r="H38">
+      <c r="H38" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="I38" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="J38" s="1">
         <v>60</v>
-      </c>
-      <c r="I38">
-        <v>8.4</v>
-      </c>
-      <c r="J38">
-        <v>3.8</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B39" s="1">
         <v>2011</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E39">
+        <v>0.4</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G39" s="1">
         <v>41</v>
       </c>
-      <c r="F39">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G39">
+      <c r="H39" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H39">
+      <c r="I39" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="J39" s="1">
         <v>60</v>
-      </c>
-      <c r="I39">
-        <v>3.2</v>
-      </c>
-      <c r="J39">
-        <v>1.3</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B40" s="1">
         <v>2011</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E40">
+        <v>10.9</v>
+      </c>
+      <c r="F40" s="1">
+        <v>4</v>
+      </c>
+      <c r="G40" s="1">
         <v>41</v>
       </c>
-      <c r="F40">
-        <v>2.5</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40">
+      <c r="H40" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="I40" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="J40" s="1">
         <v>60</v>
       </c>
-      <c r="I40">
-        <v>3</v>
-      </c>
-      <c r="J40">
-        <v>1.3</v>
-      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F41" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="G41" s="1">
+        <v>41</v>
+      </c>
+      <c r="H41" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="I41" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="J41" s="1">
+        <v>60</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="F42" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="G42" s="1">
+        <v>41</v>
+      </c>
+      <c r="H42" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="I42" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="J42" s="1">
+        <v>60</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="A43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43">
+        <v>35.6</v>
+      </c>
+      <c r="F43" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G43" s="1">
+        <v>41</v>
+      </c>
+      <c r="H43" s="1">
+        <v>36.1</v>
+      </c>
+      <c r="I43" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="J43" s="1">
+        <v>60</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="A44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44">
+        <v>214.6</v>
+      </c>
+      <c r="F44" s="1">
+        <v>50.4</v>
+      </c>
+      <c r="G44" s="1">
+        <v>41</v>
+      </c>
+      <c r="H44" s="1">
+        <v>219.1</v>
+      </c>
+      <c r="I44" s="1">
+        <v>54.8</v>
+      </c>
+      <c r="J44" s="1">
+        <v>60</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2009</v>
+      </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
@@ -1946,30 +2001,84 @@
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
